--- a/testfiles/Tests.xlsx
+++ b/testfiles/Tests.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dumacduke-my.sharepoint.com/personal/dpazzula_dumac_duke_edu/Documents/Documents/FinTech-545-Fall2025/testfiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="13_ncr:1_{13B31C93-206E-4E64-980E-4155A2D902A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55E565C7-0D14-4EC8-9B85-9A383D078FA1}"/>
+  <xr:revisionPtr revIDLastSave="61" documentId="13_ncr:1_{13B31C93-206E-4E64-980E-4155A2D902A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C20EF73A-E93C-4E7B-800D-482E9E32FCE2}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-3780" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="61">
   <si>
     <t>Test</t>
   </si>
@@ -236,6 +236,9 @@
   </si>
   <si>
     <t xml:space="preserve">American Options with discreet Dividends </t>
+  </si>
+  <si>
+    <t>Calculate AICC on fitted T</t>
   </si>
 </sst>
 </file>
@@ -271,9 +274,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -291,10 +298,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -560,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38:D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -613,7 +616,7 @@
         <v>5</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" ref="D3:D39" si="0">"testout_"&amp;A3&amp;".csv"</f>
+        <f t="shared" ref="D3:D40" si="0">"testout_"&amp;A3&amp;".csv"</f>
         <v>testout_1.2.csv</v>
       </c>
     </row>
@@ -918,241 +921,256 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24">
-        <v>8.1</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" t="str">
-        <f t="shared" si="0"/>
-        <v>testout_8.1.csv</v>
+      <c r="A24" s="2">
+        <v>7.4</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>testout_7.4.csv</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>8.1999999999999993</v>
+        <v>8.1</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D25" t="str">
         <f t="shared" si="0"/>
-        <v>testout_8.2.csv</v>
+        <v>testout_8.1.csv</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>8.3000000000000007</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C26" t="s">
         <v>39</v>
       </c>
       <c r="D26" t="str">
         <f t="shared" si="0"/>
-        <v>testout_8.3.csv</v>
+        <v>testout_8.2.csv</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>8.4</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D27" t="str">
         <f t="shared" si="0"/>
-        <v>testout_8.4.csv</v>
+        <v>testout_8.3.csv</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D28" t="str">
         <f t="shared" si="0"/>
-        <v>testout_8.5.csv</v>
+        <v>testout_8.4.csv</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C29" t="s">
         <v>39</v>
       </c>
       <c r="D29" t="str">
         <f t="shared" si="0"/>
+        <v>testout_8.5.csv</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>8.6</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="0"/>
         <v>testout_8.6.csv</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A30">
+    <row r="31" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A31">
         <v>9.1</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D30" t="str">
+      <c r="D31" t="str">
         <f t="shared" si="0"/>
         <v>testout_9.1.csv</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31">
-        <v>10.1</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D31" t="str">
-        <f t="shared" si="0"/>
-        <v>testout_10.1.csv</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32">
-        <v>10.199999999999999</v>
+        <v>10.1</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C32" t="s">
         <v>21</v>
       </c>
       <c r="D32" t="str">
         <f t="shared" si="0"/>
+        <v>testout_10.1.csv</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="0"/>
         <v>testout_10.2.csv</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A33">
-        <v>10.3</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D33" t="str">
-        <f t="shared" si="0"/>
-        <v>testout_10.3.csv</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A34">
-        <v>10.4</v>
+        <v>10.3</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D34" t="str">
         <f t="shared" si="0"/>
-        <v>testout_10.4.csv</v>
+        <v>testout_10.3.csv</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A35">
+        <v>10.4</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="0"/>
+        <v>testout_10.4.csv</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A36">
         <v>11.1</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D35" t="str">
+      <c r="D36" t="str">
         <f t="shared" si="0"/>
         <v>testout_11.1.csv</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="87" x14ac:dyDescent="0.35">
-      <c r="A36">
+    <row r="37" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+      <c r="A37">
         <v>11.2</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D36" t="str">
+      <c r="D37" t="str">
         <f t="shared" si="0"/>
         <v>testout_11.2.csv</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37">
-        <v>12.1</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D37" t="str">
-        <f t="shared" si="0"/>
-        <v>testout_12.1.csv</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D38" t="str">
         <f t="shared" si="0"/>
-        <v>testout_12.2.csv</v>
+        <v>testout_12.1.csv</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39">
+        <v>12.2</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="0"/>
+        <v>testout_12.2.csv</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40">
         <v>12.3</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D39" t="str">
+      <c r="D40" t="str">
         <f t="shared" si="0"/>
         <v>testout_12.3.csv</v>
       </c>
